--- a/project_day20/test_data/register_login.xlsx
+++ b/project_day20/test_data/register_login.xlsx
@@ -1010,7 +1010,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
